--- a/app/public/excel/Book1.xlsx
+++ b/app/public/excel/Book1.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="50">
   <si>
     <t>name</t>
   </si>
@@ -84,9 +84,6 @@
     <t>React js</t>
   </si>
   <si>
-    <t>23/11/1997</t>
-  </si>
-  <si>
     <t>sukhvirsingh.ameotech@gmail.com</t>
   </si>
   <si>
@@ -130,6 +127,45 @@
   </si>
   <si>
     <t>Dist. - Palampur</t>
+  </si>
+  <si>
+    <t>Varun Gautam</t>
+  </si>
+  <si>
+    <t>varungautam.ameotech@gmail.com</t>
+  </si>
+  <si>
+    <t>varun_ameotech</t>
+  </si>
+  <si>
+    <t>Sr. Full Stack Developer</t>
+  </si>
+  <si>
+    <t>Dot Net Developer</t>
+  </si>
+  <si>
+    <t>City: - Kurali</t>
+  </si>
+  <si>
+    <t>Hr Department</t>
+  </si>
+  <si>
+    <t>hr@ameotech.gmail.com</t>
+  </si>
+  <si>
+    <t>hr_admin</t>
+  </si>
+  <si>
+    <t>HrAdmin@123</t>
+  </si>
+  <si>
+    <t>Hr Manager</t>
+  </si>
+  <si>
+    <t>HRM</t>
+  </si>
+  <si>
+    <t>moderator</t>
   </si>
 </sst>
 </file>
@@ -484,8 +520,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:O46"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E17" sqref="E17"/>
+    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="K7" sqref="K7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -577,8 +613,9 @@
       <c r="G2" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="H2" s="3">
-        <v>44594</v>
+      <c r="H2" s="3" t="e">
+        <f>DATEVALUE(2/3/2022)</f>
+        <v>#VALUE!</v>
       </c>
       <c r="I2" s="1" t="s">
         <v>17</v>
@@ -587,10 +624,11 @@
         <v>10000</v>
       </c>
       <c r="M2" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="N2" s="1" t="s">
-        <v>22</v>
+        <v>25</v>
+      </c>
+      <c r="N2" s="3" t="e">
+        <f>DATEVALUE(11/23/1997)</f>
+        <v>#VALUE!</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -598,10 +636,10 @@
         <v>19</v>
       </c>
       <c r="B3" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="C3" s="1" t="s">
         <v>23</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>24</v>
       </c>
       <c r="D3" s="1">
         <v>123456</v>
@@ -610,13 +648,14 @@
         <v>9087654324</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="H3" s="3">
-        <v>44261</v>
+        <v>24</v>
+      </c>
+      <c r="H3" s="3" t="e">
+        <f>DATEVALUE(2/3/2022)</f>
+        <v>#VALUE!</v>
       </c>
       <c r="I3" s="1" t="s">
         <v>17</v>
@@ -625,21 +664,22 @@
         <v>30000</v>
       </c>
       <c r="M3" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="N3" s="3">
-        <v>33124</v>
+        <v>26</v>
+      </c>
+      <c r="N3" s="3" t="e">
+        <f>DATEVALUE(10/13/1993)</f>
+        <v>#VALUE!</v>
       </c>
     </row>
     <row r="4" spans="1:15">
       <c r="A4" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="B4" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="B4" s="2" t="s">
+      <c r="C4" s="1" t="s">
         <v>29</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>30</v>
       </c>
       <c r="D4" s="1">
         <v>123456</v>
@@ -648,13 +688,14 @@
         <v>9087634324</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G4" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="H4" s="3">
-        <v>44622</v>
+        <v>24</v>
+      </c>
+      <c r="H4" s="3" t="e">
+        <f>DATEVALUE(2/3/2022)</f>
+        <v>#VALUE!</v>
       </c>
       <c r="I4" s="1" t="s">
         <v>17</v>
@@ -663,21 +704,22 @@
         <v>12000</v>
       </c>
       <c r="M4" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="N4" s="3">
-        <v>36046</v>
+        <v>32</v>
+      </c>
+      <c r="N4" s="3" t="e">
+        <f>DATEVALUE(11/22/1998)</f>
+        <v>#VALUE!</v>
       </c>
     </row>
     <row r="5" spans="1:15">
       <c r="A5" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="B5" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="B5" s="2" t="s">
+      <c r="C5" s="1" t="s">
         <v>35</v>
-      </c>
-      <c r="C5" s="1" t="s">
-        <v>36</v>
       </c>
       <c r="D5" s="1">
         <v>123456</v>
@@ -686,13 +728,14 @@
         <v>9087655324</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G5" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="H5" s="3">
-        <v>44780</v>
+        <v>24</v>
+      </c>
+      <c r="H5" s="3" t="e">
+        <f>DATEVALUE(2/3/2022)</f>
+        <v>#VALUE!</v>
       </c>
       <c r="I5" s="1" t="s">
         <v>17</v>
@@ -701,19 +744,83 @@
         <v>12000</v>
       </c>
       <c r="M5" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="N5" s="3" t="e">
+        <f>DATEVALUE(11/16/1995)</f>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15">
+      <c r="A6" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="N5" s="3">
-        <v>34585</v>
-      </c>
-    </row>
-    <row r="6" spans="1:15">
-      <c r="B6" s="2"/>
-      <c r="H6" s="3"/>
+      <c r="B6" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="D6" s="1">
+        <v>123456</v>
+      </c>
+      <c r="E6" s="1">
+        <v>9456434855</v>
+      </c>
+      <c r="F6" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="G6" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="H6" s="3" t="e">
+        <f>DATEVALUE(2/3/2022)</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="I6" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="J6" s="1">
+        <v>52000</v>
+      </c>
+      <c r="M6" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="N6" s="3" t="e">
+        <f>DATEVALUE(11/23/1997)</f>
+        <v>#VALUE!</v>
+      </c>
     </row>
     <row r="7" spans="1:15">
-      <c r="B7" s="2"/>
+      <c r="A7" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="E7" s="1">
+        <v>9756484554</v>
+      </c>
+      <c r="F7" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="G7" s="1" t="s">
+        <v>48</v>
+      </c>
       <c r="H7" s="3"/>
+      <c r="I7" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="J7" s="1">
+        <v>52000</v>
+      </c>
+      <c r="N7" s="3"/>
     </row>
     <row r="8" spans="1:15">
       <c r="B8" s="2"/>
@@ -877,8 +984,12 @@
     <hyperlink ref="B3" r:id="rId2"/>
     <hyperlink ref="B4" r:id="rId3"/>
     <hyperlink ref="B5" r:id="rId4"/>
+    <hyperlink ref="B6" r:id="rId5"/>
+    <hyperlink ref="B7" r:id="rId6"/>
+    <hyperlink ref="D7" r:id="rId7"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId8"/>
 </worksheet>
 </file>
 

--- a/app/public/excel/Book1.xlsx
+++ b/app/public/excel/Book1.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="60" windowWidth="20055" windowHeight="7950"/>
@@ -11,12 +11,12 @@
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="125725"/>
+  <calcPr calcId="124519"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="245" uniqueCount="163">
   <si>
     <t>name</t>
   </si>
@@ -166,6 +166,345 @@
   </si>
   <si>
     <t>moderator</t>
+  </si>
+  <si>
+    <t>kamaljeetsingh.ameotech@gmail.com</t>
+  </si>
+  <si>
+    <t>kamaljeet_ameotech</t>
+  </si>
+  <si>
+    <t>Sr. Project Manager</t>
+  </si>
+  <si>
+    <t>Data Entry, Python, React js</t>
+  </si>
+  <si>
+    <t>Gurinder Singh</t>
+  </si>
+  <si>
+    <t>gurindersingh.ameotech@gmail.com</t>
+  </si>
+  <si>
+    <t>gurinder_ameotech</t>
+  </si>
+  <si>
+    <t>Data Entry</t>
+  </si>
+  <si>
+    <t>Dist. - Ropar</t>
+  </si>
+  <si>
+    <t>Tejinder Singh</t>
+  </si>
+  <si>
+    <t>tejindersingh.ameotech@gmail.com</t>
+  </si>
+  <si>
+    <t>tejinder_ameotech</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mohit Kumar </t>
+  </si>
+  <si>
+    <t>mohitkumar.ameotech@gmail.com</t>
+  </si>
+  <si>
+    <t>mohit_ameotech</t>
+  </si>
+  <si>
+    <t>Data Entry Operator</t>
+  </si>
+  <si>
+    <t>Data Entry Team Leader</t>
+  </si>
+  <si>
+    <t>City - Ambala</t>
+  </si>
+  <si>
+    <t>Arshpreet Singh</t>
+  </si>
+  <si>
+    <t>Manpreet Singh</t>
+  </si>
+  <si>
+    <t>Kamaljeet Singh</t>
+  </si>
+  <si>
+    <t>Bhavna</t>
+  </si>
+  <si>
+    <t>Rajat Sharma</t>
+  </si>
+  <si>
+    <t>Tushar Mahajan</t>
+  </si>
+  <si>
+    <t>Amit Vasdev</t>
+  </si>
+  <si>
+    <t>Rahul Mehra</t>
+  </si>
+  <si>
+    <t>Baljeet Singh</t>
+  </si>
+  <si>
+    <t>Kajal Thakur</t>
+  </si>
+  <si>
+    <t>Diksha Singh</t>
+  </si>
+  <si>
+    <t>Amrish</t>
+  </si>
+  <si>
+    <t>Akash Gupta</t>
+  </si>
+  <si>
+    <t>Shivtaj Kaur</t>
+  </si>
+  <si>
+    <t>Abhay Moudgill</t>
+  </si>
+  <si>
+    <t>Sr. Python Developer</t>
+  </si>
+  <si>
+    <t>Python Developer</t>
+  </si>
+  <si>
+    <t>Sr. Angular Developer</t>
+  </si>
+  <si>
+    <t>Python</t>
+  </si>
+  <si>
+    <t>Dot Net</t>
+  </si>
+  <si>
+    <t>Angular Developer</t>
+  </si>
+  <si>
+    <t>Angular</t>
+  </si>
+  <si>
+    <t>arshpreetsingh.ameotech@gmail.com</t>
+  </si>
+  <si>
+    <t>manpreetsingh.ameotech@gmail.com</t>
+  </si>
+  <si>
+    <t>bhavna.ameotech@gmail.com</t>
+  </si>
+  <si>
+    <t>rajatsharma.ameotech@gmail.com</t>
+  </si>
+  <si>
+    <t>tusharmahajan.ameotech@gmail.com</t>
+  </si>
+  <si>
+    <t>amitvasdev.ameotech@gmail.com</t>
+  </si>
+  <si>
+    <t>rahulmehra.ameotech@gmail.com</t>
+  </si>
+  <si>
+    <t>baljeetsingh.ameotech@gmail.com</t>
+  </si>
+  <si>
+    <t>kajalthakur.ameotech@gmail.com</t>
+  </si>
+  <si>
+    <t>dikshasingh.ameotech@gmail.com</t>
+  </si>
+  <si>
+    <t>amrish.ameotech@gmail.com</t>
+  </si>
+  <si>
+    <t>akashgupta.ameotech@gmail.com</t>
+  </si>
+  <si>
+    <t>shivtajkaur.ameotech@gmail.com</t>
+  </si>
+  <si>
+    <t>abhaymoudgill.ameotech@gmail.com</t>
+  </si>
+  <si>
+    <t>arshpreet_ameotech</t>
+  </si>
+  <si>
+    <t>manpreet_ameotech</t>
+  </si>
+  <si>
+    <t>bhavna_ameotech</t>
+  </si>
+  <si>
+    <t>rajat_ameotech</t>
+  </si>
+  <si>
+    <t>tushar_ameotech</t>
+  </si>
+  <si>
+    <t>amit_ameotech</t>
+  </si>
+  <si>
+    <t>rahul_ameotech</t>
+  </si>
+  <si>
+    <t>baljeet_ameotech</t>
+  </si>
+  <si>
+    <t>kajal_ameotech</t>
+  </si>
+  <si>
+    <t>diksha_ameotech</t>
+  </si>
+  <si>
+    <t>amrish_ameotech</t>
+  </si>
+  <si>
+    <t>akash_ameotech</t>
+  </si>
+  <si>
+    <t>shivtaj_ameotech</t>
+  </si>
+  <si>
+    <t>abhay_ameotech</t>
+  </si>
+  <si>
+    <t>City - Kanpur</t>
+  </si>
+  <si>
+    <t>City - Delhi</t>
+  </si>
+  <si>
+    <t>Dist - Gorakhpur</t>
+  </si>
+  <si>
+    <t>Dist - Jalandhar</t>
+  </si>
+  <si>
+    <t>City - Mohali</t>
+  </si>
+  <si>
+    <t>Dist - Chandigarh</t>
+  </si>
+  <si>
+    <t>City - Himachal</t>
+  </si>
+  <si>
+    <t>City - Nautanwa</t>
+  </si>
+  <si>
+    <t>Dist - Maharajganj</t>
+  </si>
+  <si>
+    <t>City - SantkabirNagar</t>
+  </si>
+  <si>
+    <t>Dist - Delhi</t>
+  </si>
+  <si>
+    <t>City - Lucknow</t>
+  </si>
+  <si>
+    <t>City - Gorakhpur</t>
+  </si>
+  <si>
+    <t>Kawandeep Kaur</t>
+  </si>
+  <si>
+    <t>Pardeep Kumar</t>
+  </si>
+  <si>
+    <t>Sonu Kumar</t>
+  </si>
+  <si>
+    <t>Sumit Sharma</t>
+  </si>
+  <si>
+    <t>Harwinder Singh</t>
+  </si>
+  <si>
+    <t>kawandeepkaur.ameotech@gmail.com</t>
+  </si>
+  <si>
+    <t>pardeepkumar.ameotech@gmail.com</t>
+  </si>
+  <si>
+    <t>sonukumar.ameotech@gmail.com</t>
+  </si>
+  <si>
+    <t>sumitsharma.ameotech@gmail.com</t>
+  </si>
+  <si>
+    <t>harwindersingh.ameotech@gmail.com</t>
+  </si>
+  <si>
+    <t>Digital Marketing</t>
+  </si>
+  <si>
+    <t>kawandeep_ameotech</t>
+  </si>
+  <si>
+    <t>pardeep_ameotech</t>
+  </si>
+  <si>
+    <t>sonu_ameotech</t>
+  </si>
+  <si>
+    <t>sumit_ameotech</t>
+  </si>
+  <si>
+    <t>harwinder_ameotech</t>
+  </si>
+  <si>
+    <t>Email Marketor</t>
+  </si>
+  <si>
+    <t>Sr. Email Marketor</t>
+  </si>
+  <si>
+    <t>Super Admin</t>
+  </si>
+  <si>
+    <t>superAdmin@ameotech.gmail.com</t>
+  </si>
+  <si>
+    <t>superAdmin</t>
+  </si>
+  <si>
+    <t>Navpreet Kaur</t>
+  </si>
+  <si>
+    <t>navpreet_ameotech</t>
+  </si>
+  <si>
+    <t>navpreet.ameotech@gmail.com</t>
+  </si>
+  <si>
+    <t>admin</t>
+  </si>
+  <si>
+    <t>City - Amritsar Sahib</t>
+  </si>
+  <si>
+    <t>Shubam Virat</t>
+  </si>
+  <si>
+    <t>Vishal Kumar</t>
+  </si>
+  <si>
+    <t>shubam_ameotech</t>
+  </si>
+  <si>
+    <t>vishal_ameotech</t>
+  </si>
+  <si>
+    <t>vishalkumar.ameotech@gmail.com</t>
+  </si>
+  <si>
+    <t>shubam.ameotech@gmail.com</t>
   </si>
 </sst>
 </file>
@@ -520,19 +859,19 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:O46"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="K7" sqref="K7"/>
+    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="J34" sqref="J34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="18.7109375" style="1" customWidth="1"/>
-    <col min="2" max="2" width="33.85546875" style="1" customWidth="1"/>
-    <col min="3" max="3" width="17.140625" style="1" customWidth="1"/>
-    <col min="4" max="4" width="9.140625" style="1"/>
+    <col min="2" max="2" width="38.5703125" style="1" customWidth="1"/>
+    <col min="3" max="3" width="22.28515625" style="1" customWidth="1"/>
+    <col min="4" max="4" width="16" style="1" customWidth="1"/>
     <col min="5" max="5" width="15.5703125" style="1" customWidth="1"/>
     <col min="6" max="6" width="22.28515625" style="1" customWidth="1"/>
-    <col min="7" max="7" width="23.140625" style="1" customWidth="1"/>
+    <col min="7" max="7" width="28" style="1" customWidth="1"/>
     <col min="8" max="8" width="14.85546875" style="1" customWidth="1"/>
     <col min="9" max="9" width="9.140625" style="1"/>
     <col min="10" max="10" width="14" style="1" customWidth="1"/>
@@ -817,164 +1156,1119 @@
       <c r="I7" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="J7" s="1">
-        <v>52000</v>
-      </c>
       <c r="N7" s="3"/>
     </row>
     <row r="8" spans="1:15">
-      <c r="B8" s="2"/>
-      <c r="H8" s="3"/>
+      <c r="A8" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="D8" s="1">
+        <v>123456</v>
+      </c>
+      <c r="E8" s="1">
+        <v>9895584598</v>
+      </c>
+      <c r="F8" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="G8" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="H8" s="3" t="e">
+        <f>DATEVALUE(12/3/2020)</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="I8" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="J8" s="1">
+        <v>65000</v>
+      </c>
+      <c r="N8" s="3" t="e">
+        <f>DATEVALUE(5/15/1990)</f>
+        <v>#VALUE!</v>
+      </c>
     </row>
     <row r="9" spans="1:15">
-      <c r="B9" s="2"/>
-      <c r="H9" s="3"/>
+      <c r="A9" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="D9" s="1">
+        <v>123456</v>
+      </c>
+      <c r="E9" s="1">
+        <v>8418414848</v>
+      </c>
+      <c r="F9" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="G9" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="H9" s="3" t="e">
+        <f>DATEVALUE(11/3/2021)</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="I9" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="J9" s="1">
+        <v>15000</v>
+      </c>
+      <c r="M9" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="N9" s="3" t="e">
+        <f>DATEVALUE(5/25/1999)</f>
+        <v>#VALUE!</v>
+      </c>
     </row>
     <row r="10" spans="1:15">
-      <c r="B10" s="2"/>
-      <c r="H10" s="3"/>
+      <c r="A10" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="D10" s="1">
+        <v>123456</v>
+      </c>
+      <c r="E10" s="1">
+        <v>9841658418</v>
+      </c>
+      <c r="F10" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="G10" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="H10" s="3" t="e">
+        <f>DATEVALUE(12/30/2021)</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="I10" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="J10" s="1">
+        <v>15000</v>
+      </c>
+      <c r="M10" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="N10" s="3" t="e">
+        <f>DATEVALUE(3/28/1999)</f>
+        <v>#VALUE!</v>
+      </c>
     </row>
     <row r="11" spans="1:15">
-      <c r="B11" s="2"/>
-      <c r="H11" s="3"/>
+      <c r="A11" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="D11" s="1">
+        <v>123456</v>
+      </c>
+      <c r="E11" s="1">
+        <v>9954123870</v>
+      </c>
+      <c r="F11" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="G11" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="H11" s="3" t="e">
+        <f>DATEVALUE(12/12/2020)</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="I11" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="J11" s="1">
+        <v>45000</v>
+      </c>
+      <c r="M11" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="N11" s="3" t="e">
+        <f>DATEVALUE(5/10/1991)</f>
+        <v>#VALUE!</v>
+      </c>
     </row>
     <row r="12" spans="1:15">
-      <c r="B12" s="2"/>
-      <c r="H12" s="3"/>
+      <c r="A12" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="D12" s="1">
+        <v>123456</v>
+      </c>
+      <c r="E12" s="1">
+        <v>7895423590</v>
+      </c>
+      <c r="F12" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="G12" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="H12" s="3" t="e">
+        <f t="shared" ref="H9:H25" si="0">DATEVALUE(12/3/2020)</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="I12" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="J12" s="1">
+        <v>63000</v>
+      </c>
+      <c r="M12" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="N12" s="3" t="e">
+        <f>N11=DATEVALUE(11/10/1991)</f>
+        <v>#VALUE!</v>
+      </c>
     </row>
     <row r="13" spans="1:15">
-      <c r="B13" s="2"/>
-      <c r="H13" s="3"/>
+      <c r="A13" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="B13" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="D13" s="1">
+        <v>123456</v>
+      </c>
+      <c r="E13" s="1">
+        <v>7845896123</v>
+      </c>
+      <c r="F13" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="G13" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="H13" s="3" t="e">
+        <f t="shared" si="0"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="I13" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="J13" s="1">
+        <v>65000</v>
+      </c>
+      <c r="M13" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="N13" s="3" t="e">
+        <f>DATEVALUE(5/12/1992)</f>
+        <v>#VALUE!</v>
+      </c>
     </row>
     <row r="14" spans="1:15">
-      <c r="B14" s="2"/>
-      <c r="H14" s="3"/>
+      <c r="A14" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="B14" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="D14" s="1">
+        <v>123456</v>
+      </c>
+      <c r="E14" s="1">
+        <v>9135426780</v>
+      </c>
+      <c r="F14" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="G14" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="H14" s="3" t="e">
+        <f>DATEVALUE(12/4/2021)</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="I14" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="J14" s="1">
+        <v>32000</v>
+      </c>
+      <c r="M14" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="N14" s="3" t="e">
+        <f>DATEVALUE(5/15/1990)</f>
+        <v>#VALUE!</v>
+      </c>
     </row>
     <row r="15" spans="1:15">
-      <c r="B15" s="2"/>
-      <c r="H15" s="3"/>
+      <c r="A15" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="B15" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="D15" s="1">
+        <v>123456</v>
+      </c>
+      <c r="E15" s="1">
+        <v>9954123598</v>
+      </c>
+      <c r="F15" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="G15" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="H15" s="3" t="e">
+        <f>DATEVALUE(11/6/2020)</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="I15" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="J15" s="1">
+        <v>17000</v>
+      </c>
+      <c r="M15" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="N15" s="3" t="e">
+        <f>DATEVALUE(5/1/1993)</f>
+        <v>#VALUE!</v>
+      </c>
     </row>
     <row r="16" spans="1:15">
-      <c r="B16" s="2"/>
-      <c r="H16" s="3"/>
-    </row>
-    <row r="17" spans="2:8">
-      <c r="B17" s="2"/>
-      <c r="H17" s="3"/>
-    </row>
-    <row r="18" spans="2:8">
-      <c r="B18" s="2"/>
-      <c r="H18" s="3"/>
-    </row>
-    <row r="19" spans="2:8">
-      <c r="B19" s="2"/>
-      <c r="H19" s="3"/>
-    </row>
-    <row r="20" spans="2:8">
-      <c r="B20" s="2"/>
-      <c r="H20" s="3"/>
-    </row>
-    <row r="21" spans="2:8">
-      <c r="B21" s="2"/>
-      <c r="H21" s="3"/>
-    </row>
-    <row r="22" spans="2:8">
-      <c r="B22" s="2"/>
-      <c r="H22" s="3"/>
-    </row>
-    <row r="23" spans="2:8">
-      <c r="B23" s="2"/>
-      <c r="H23" s="3"/>
-    </row>
-    <row r="24" spans="2:8">
-      <c r="B24" s="2"/>
-      <c r="H24" s="3"/>
-    </row>
-    <row r="25" spans="2:8">
-      <c r="B25" s="2"/>
-      <c r="H25" s="3"/>
-    </row>
-    <row r="26" spans="2:8">
-      <c r="B26" s="2"/>
-      <c r="H26" s="3"/>
-    </row>
-    <row r="27" spans="2:8">
-      <c r="B27" s="2"/>
-      <c r="H27" s="3"/>
-    </row>
-    <row r="28" spans="2:8">
-      <c r="B28" s="2"/>
-      <c r="H28" s="3"/>
-    </row>
-    <row r="29" spans="2:8">
-      <c r="B29" s="2"/>
-      <c r="H29" s="3"/>
-    </row>
-    <row r="30" spans="2:8">
-      <c r="B30" s="2"/>
-      <c r="H30" s="3"/>
-    </row>
-    <row r="31" spans="2:8">
-      <c r="B31" s="2"/>
+      <c r="A16" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="B16" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="D16" s="1">
+        <v>123456</v>
+      </c>
+      <c r="E16" s="1">
+        <v>9895584598</v>
+      </c>
+      <c r="F16" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="G16" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="H16" s="3" t="e">
+        <f>DATEVALUE(13/3/2022)</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="I16" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="J16" s="1">
+        <v>33000</v>
+      </c>
+      <c r="M16" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="N16" s="3" t="e">
+        <f>DATEVALUE(4/6/1990)</f>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="17" spans="1:14">
+      <c r="A17" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="B17" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="C17" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="D17" s="1">
+        <v>123456</v>
+      </c>
+      <c r="E17" s="1">
+        <v>9642351870</v>
+      </c>
+      <c r="F17" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="G17" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="H17" s="3" t="e">
+        <f>DATEVALUE(12/4/2020)</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="I17" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="J17" s="1">
+        <v>26000</v>
+      </c>
+      <c r="M17" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="N17" s="3" t="e">
+        <f>DATEVALUE(8/16/1994)</f>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="18" spans="1:14">
+      <c r="A18" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="B18" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="C18" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="D18" s="1">
+        <v>123456</v>
+      </c>
+      <c r="E18" s="1">
+        <v>7895463210</v>
+      </c>
+      <c r="F18" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="G18" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="H18" s="3" t="e">
+        <f>DATEVALUE(12/3/2021)</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="I18" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="J18" s="1">
+        <v>28000</v>
+      </c>
+      <c r="M18" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="N18" s="3" t="e">
+        <f>DATEVALUE(2/18/1989)</f>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="19" spans="1:14">
+      <c r="A19" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="B19" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="C19" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="D19" s="1">
+        <v>123456</v>
+      </c>
+      <c r="E19" s="1">
+        <v>9895235468</v>
+      </c>
+      <c r="F19" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="G19" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="H19" s="3" t="e">
+        <f>DATEVALUE(15/7/2021)</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="I19" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="J19" s="1">
+        <v>55000</v>
+      </c>
+      <c r="M19" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="N19" s="3" t="e">
+        <f>DATEVALUE(1/11/1996)</f>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="20" spans="1:14">
+      <c r="A20" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="B20" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="C20" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="D20" s="1">
+        <v>123456</v>
+      </c>
+      <c r="E20" s="1">
+        <v>9874563210</v>
+      </c>
+      <c r="F20" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="G20" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="H20" s="3" t="e">
+        <f>DATEVALUE(9/8/2020)</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="I20" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="J20" s="1">
+        <v>35000</v>
+      </c>
+      <c r="M20" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="N20" s="3" t="e">
+        <f>DATEVALUE(10/15/1993)</f>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="21" spans="1:14">
+      <c r="A21" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="B21" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="C21" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="D21" s="1">
+        <v>123456</v>
+      </c>
+      <c r="E21" s="1">
+        <v>9895314598</v>
+      </c>
+      <c r="F21" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="G21" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="H21" s="3" t="e">
+        <f>DATEVALUE(2/5/2021)</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="I21" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="J21" s="1">
+        <v>23000</v>
+      </c>
+      <c r="M21" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="N21" s="3" t="e">
+        <f>DATEVALUE(10/12/1995)</f>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="22" spans="1:14">
+      <c r="A22" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="B22" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="C22" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="D22" s="1">
+        <v>123456</v>
+      </c>
+      <c r="E22" s="1">
+        <v>9892384598</v>
+      </c>
+      <c r="F22" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="G22" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="H22" s="3" t="e">
+        <f>DATEVALUE(3/3/2022)</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="I22" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="J22" s="1">
+        <v>14000</v>
+      </c>
+      <c r="M22" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="N22" s="3" t="e">
+        <f>DATEVALUE(9/20/1992)</f>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="23" spans="1:14">
+      <c r="A23" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="B23" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="C23" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="D23" s="1">
+        <v>123456</v>
+      </c>
+      <c r="E23" s="1">
+        <v>9895578598</v>
+      </c>
+      <c r="F23" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="G23" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="H23" s="3" t="e">
+        <f>DATEVALUE(18/5/2022)</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="I23" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="J23" s="1">
+        <v>12000</v>
+      </c>
+      <c r="M23" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="N23" s="3" t="e">
+        <f>DATEVALUE(5/14/1990)</f>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="24" spans="1:14">
+      <c r="A24" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="B24" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="C24" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="D24" s="1">
+        <v>123456</v>
+      </c>
+      <c r="E24" s="1">
+        <v>9893284598</v>
+      </c>
+      <c r="F24" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="G24" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="H24" s="3" t="e">
+        <f>DATEVALUE(17/3/2021)</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="I24" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="J24" s="1">
+        <v>35000</v>
+      </c>
+      <c r="M24" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="N24" s="3" t="e">
+        <f>DATEVALUE(8/23/1991)</f>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="25" spans="1:14">
+      <c r="A25" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="B25" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="C25" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="D25" s="1">
+        <v>123456</v>
+      </c>
+      <c r="E25" s="1">
+        <v>9890214598</v>
+      </c>
+      <c r="F25" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="G25" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="H25" s="3" t="e">
+        <f>DATEVALUE(3/6/2022)</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="I25" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="J25" s="1">
+        <v>14000</v>
+      </c>
+      <c r="M25" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="N25" s="3" t="e">
+        <f>DATEVALUE(5/15/1992)</f>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="26" spans="1:14">
+      <c r="A26" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="B26" s="2" t="s">
+        <v>136</v>
+      </c>
+      <c r="C26" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="D26" s="1">
+        <v>123456</v>
+      </c>
+      <c r="E26" s="1">
+        <v>8797898778</v>
+      </c>
+      <c r="F26" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="G26" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="H26" s="3" t="e">
+        <f>DATEVALUE(10/8/2022)</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="I26" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="J26" s="1">
+        <v>12000</v>
+      </c>
+      <c r="M26" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="N26" s="3" t="e">
+        <f t="shared" ref="N26:N30" si="1">DATEVALUE(5/15/1992)</f>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="27" spans="1:14">
+      <c r="A27" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="B27" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="C27" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="D27" s="1">
+        <v>123456</v>
+      </c>
+      <c r="E27" s="1">
+        <v>9878578788</v>
+      </c>
+      <c r="F27" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="G27" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="H27" s="3" t="e">
+        <f t="shared" ref="H27:H35" si="2">DATEVALUE(10/8/2022)</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="I27" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="J27" s="1">
+        <v>20000</v>
+      </c>
+      <c r="M27" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="N27" s="3" t="e">
+        <f t="shared" si="1"/>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="28" spans="1:14">
+      <c r="A28" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="B28" s="2" t="s">
+        <v>138</v>
+      </c>
+      <c r="C28" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="D28" s="1">
+        <v>123456</v>
+      </c>
+      <c r="E28" s="1">
+        <v>8765478685</v>
+      </c>
+      <c r="F28" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="G28" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="H28" s="3" t="e">
+        <f t="shared" si="2"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="I28" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="J28" s="1">
+        <v>20000</v>
+      </c>
+      <c r="M28" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="N28" s="3" t="e">
+        <f t="shared" si="1"/>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="29" spans="1:14">
+      <c r="A29" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="B29" s="2" t="s">
+        <v>139</v>
+      </c>
+      <c r="C29" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="D29" s="1">
+        <v>123456</v>
+      </c>
+      <c r="E29" s="1">
+        <v>8984587588</v>
+      </c>
+      <c r="F29" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="G29" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="H29" s="3" t="e">
+        <f t="shared" si="2"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="I29" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="J29" s="1">
+        <v>20000</v>
+      </c>
+      <c r="M29" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="N29" s="3" t="e">
+        <f t="shared" si="1"/>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="30" spans="1:14">
+      <c r="A30" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="B30" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="C30" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="D30" s="1">
+        <v>123456</v>
+      </c>
+      <c r="E30" s="1">
+        <v>9788544654</v>
+      </c>
+      <c r="F30" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="G30" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="H30" s="3" t="e">
+        <f t="shared" si="2"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="I30" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="J30" s="1">
+        <v>55000</v>
+      </c>
+      <c r="M30" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="N30" s="3" t="e">
+        <f>DATEVALUE(9/25/1992)</f>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="31" spans="1:14">
+      <c r="A31" s="1" t="s">
+        <v>149</v>
+      </c>
+      <c r="B31" s="2" t="s">
+        <v>150</v>
+      </c>
+      <c r="C31" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="D31" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="E31" s="1">
+        <v>9756484554</v>
+      </c>
+      <c r="F31" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="G31" s="1" t="s">
+        <v>48</v>
+      </c>
       <c r="H31" s="3"/>
-    </row>
-    <row r="32" spans="2:8">
-      <c r="B32" s="2"/>
-      <c r="H32" s="3"/>
-    </row>
-    <row r="33" spans="2:8">
-      <c r="B33" s="2"/>
-      <c r="H33" s="3"/>
-    </row>
-    <row r="34" spans="2:8">
-      <c r="B34" s="2"/>
-      <c r="H34" s="3"/>
-    </row>
-    <row r="35" spans="2:8">
+      <c r="I31" s="1" t="s">
+        <v>155</v>
+      </c>
+      <c r="N31" s="3"/>
+    </row>
+    <row r="32" spans="1:14">
+      <c r="A32" s="1" t="s">
+        <v>152</v>
+      </c>
+      <c r="B32" s="2" t="s">
+        <v>154</v>
+      </c>
+      <c r="C32" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="D32" s="1">
+        <v>123456</v>
+      </c>
+      <c r="E32" s="1">
+        <v>9417984544</v>
+      </c>
+      <c r="F32" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="G32" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="H32" s="3" t="e">
+        <f>DATEVALUE(6/29/2022)</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="I32" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="J32" s="1">
+        <v>12000</v>
+      </c>
+      <c r="M32" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="N32" s="3" t="e">
+        <f>DATEVALUE(10/1/1997)</f>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="33" spans="1:14">
+      <c r="A33" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="B33" s="2" t="s">
+        <v>162</v>
+      </c>
+      <c r="C33" s="1" t="s">
+        <v>159</v>
+      </c>
+      <c r="D33" s="1">
+        <v>123456</v>
+      </c>
+      <c r="E33" s="1">
+        <v>9878583888</v>
+      </c>
+      <c r="F33" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="G33" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="H33" s="3" t="e">
+        <f t="shared" si="2"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="I33" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="J33" s="1">
+        <v>20000</v>
+      </c>
+      <c r="M33" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="N33" s="3" t="e">
+        <f>DATEVALUE(5/15/1998)</f>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="34" spans="1:14">
+      <c r="A34" s="1" t="s">
+        <v>158</v>
+      </c>
+      <c r="B34" s="2" t="s">
+        <v>161</v>
+      </c>
+      <c r="C34" s="1" t="s">
+        <v>160</v>
+      </c>
+      <c r="D34" s="1">
+        <v>123456</v>
+      </c>
+      <c r="E34" s="1">
+        <v>8786782456</v>
+      </c>
+      <c r="F34" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="G34" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="H34" s="3" t="e">
+        <f t="shared" si="2"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="I34" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="J34" s="1">
+        <v>25000</v>
+      </c>
+      <c r="M34" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="N34" s="3" t="e">
+        <f>DATEVALUE(5/5/1995)</f>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="35" spans="1:14">
       <c r="B35" s="2"/>
       <c r="H35" s="3"/>
-    </row>
-    <row r="36" spans="2:8">
+      <c r="N35" s="3"/>
+    </row>
+    <row r="36" spans="1:14">
       <c r="B36" s="2"/>
       <c r="H36" s="3"/>
     </row>
-    <row r="37" spans="2:8">
+    <row r="37" spans="1:14">
       <c r="B37" s="2"/>
       <c r="H37" s="3"/>
     </row>
-    <row r="38" spans="2:8">
+    <row r="38" spans="1:14">
       <c r="B38" s="2"/>
       <c r="H38" s="3"/>
     </row>
-    <row r="39" spans="2:8">
+    <row r="39" spans="1:14">
       <c r="B39" s="2"/>
       <c r="H39" s="3"/>
     </row>
-    <row r="40" spans="2:8">
+    <row r="40" spans="1:14">
       <c r="B40" s="2"/>
       <c r="H40" s="3"/>
     </row>
-    <row r="41" spans="2:8">
+    <row r="41" spans="1:14">
       <c r="B41" s="2"/>
       <c r="H41" s="3"/>
     </row>
-    <row r="42" spans="2:8">
+    <row r="42" spans="1:14">
       <c r="B42" s="2"/>
       <c r="H42" s="3"/>
     </row>
-    <row r="43" spans="2:8">
+    <row r="43" spans="1:14">
       <c r="B43" s="2"/>
       <c r="H43" s="3"/>
     </row>
-    <row r="44" spans="2:8">
+    <row r="44" spans="1:14">
       <c r="B44" s="2"/>
       <c r="H44" s="3"/>
     </row>
-    <row r="45" spans="2:8">
+    <row r="45" spans="1:14">
       <c r="B45" s="2"/>
       <c r="H45" s="3"/>
     </row>
-    <row r="46" spans="2:8">
+    <row r="46" spans="1:14">
       <c r="B46" s="2"/>
       <c r="H46" s="3"/>
     </row>
@@ -987,9 +2281,38 @@
     <hyperlink ref="B6" r:id="rId5"/>
     <hyperlink ref="B7" r:id="rId6"/>
     <hyperlink ref="D7" r:id="rId7"/>
+    <hyperlink ref="B8" r:id="rId8"/>
+    <hyperlink ref="B10" r:id="rId9"/>
+    <hyperlink ref="B11" r:id="rId10"/>
+    <hyperlink ref="B12" r:id="rId11"/>
+    <hyperlink ref="B13" r:id="rId12"/>
+    <hyperlink ref="B14" r:id="rId13"/>
+    <hyperlink ref="B15" r:id="rId14"/>
+    <hyperlink ref="B16" r:id="rId15"/>
+    <hyperlink ref="B17" r:id="rId16"/>
+    <hyperlink ref="B18" r:id="rId17"/>
+    <hyperlink ref="B19" r:id="rId18"/>
+    <hyperlink ref="B20" r:id="rId19"/>
+    <hyperlink ref="B21" r:id="rId20"/>
+    <hyperlink ref="B22" r:id="rId21"/>
+    <hyperlink ref="B23" r:id="rId22"/>
+    <hyperlink ref="B24" r:id="rId23"/>
+    <hyperlink ref="B25" r:id="rId24"/>
+    <hyperlink ref="B9" r:id="rId25"/>
+    <hyperlink ref="B26" r:id="rId26"/>
+    <hyperlink ref="B27" r:id="rId27"/>
+    <hyperlink ref="B28" r:id="rId28"/>
+    <hyperlink ref="B29" r:id="rId29"/>
+    <hyperlink ref="B27:B30" r:id="rId30" display="kawandeepkaur.ameotech@gmail.com"/>
+    <hyperlink ref="B30" r:id="rId31"/>
+    <hyperlink ref="B31" r:id="rId32"/>
+    <hyperlink ref="D31" r:id="rId33"/>
+    <hyperlink ref="B32" r:id="rId34"/>
+    <hyperlink ref="B33" r:id="rId35"/>
+    <hyperlink ref="B34" r:id="rId36"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId8"/>
+  <pageSetup orientation="portrait" r:id="rId37"/>
 </worksheet>
 </file>
 

--- a/app/public/excel/Book1.xlsx
+++ b/app/public/excel/Book1.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="245" uniqueCount="163">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="253" uniqueCount="167">
   <si>
     <t>name</t>
   </si>
@@ -81,9 +81,6 @@
     <t>jaswantsingh.ameotech@gmail.com</t>
   </si>
   <si>
-    <t>React js</t>
-  </si>
-  <si>
     <t>sukhvirsingh.ameotech@gmail.com</t>
   </si>
   <si>
@@ -177,9 +174,6 @@
     <t>Sr. Project Manager</t>
   </si>
   <si>
-    <t>Data Entry, Python, React js</t>
-  </si>
-  <si>
     <t>Gurinder Singh</t>
   </si>
   <si>
@@ -505,13 +499,31 @@
   </si>
   <si>
     <t>shubam.ameotech@gmail.com</t>
+  </si>
+  <si>
+    <t>Lavdeep Singh</t>
+  </si>
+  <si>
+    <t>lavdeepsingh.ameotech@gmail.com</t>
+  </si>
+  <si>
+    <t>lavdeepsingh_ameotech</t>
+  </si>
+  <si>
+    <t>City - Firozpur</t>
+  </si>
+  <si>
+    <t>teamleader</t>
+  </si>
+  <si>
+    <t>React JS</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="2">
+  <fonts count="3">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -525,6 +537,12 @@
       <color theme="10"/>
       <name val="Calibri"/>
       <family val="2"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="12"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
     </font>
   </fonts>
   <fills count="2">
@@ -551,7 +569,7 @@
       <protection locked="0"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -560,6 +578,9 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -857,10 +878,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:O46"/>
+  <dimension ref="A1:P46"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
-      <selection activeCell="P1" sqref="P1"/>
+    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="G6" sqref="G6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -880,11 +901,11 @@
     <col min="13" max="13" width="17" style="1" customWidth="1"/>
     <col min="14" max="14" width="14.140625" style="1" customWidth="1"/>
     <col min="15" max="15" width="13" style="1" customWidth="1"/>
-    <col min="16" max="16" width="9.140625" style="1" customWidth="1"/>
+    <col min="16" max="16" width="16.7109375" style="1" customWidth="1"/>
     <col min="17" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15">
+    <row r="1" spans="1:16">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -930,8 +951,11 @@
       <c r="O1" s="1" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="2" spans="1:15">
+      <c r="P1" s="1" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="2" spans="1:16">
       <c r="A2" s="1" t="s">
         <v>4</v>
       </c>
@@ -951,11 +975,10 @@
         <v>16</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="H2" s="3" t="e">
-        <f>DATEVALUE(2/3/2022)</f>
-        <v>#VALUE!</v>
+        <v>166</v>
+      </c>
+      <c r="H2" s="3">
+        <v>44595</v>
       </c>
       <c r="I2" s="1" t="s">
         <v>17</v>
@@ -964,22 +987,24 @@
         <v>10000</v>
       </c>
       <c r="M2" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="N2" s="3" t="e">
-        <f>DATEVALUE(11/23/1997)</f>
-        <v>#VALUE!</v>
-      </c>
-    </row>
-    <row r="3" spans="1:15">
+        <v>24</v>
+      </c>
+      <c r="N2" s="3">
+        <v>35757</v>
+      </c>
+      <c r="P2" s="1" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:16">
       <c r="A3" s="1" t="s">
         <v>19</v>
       </c>
       <c r="B3" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="C3" s="1" t="s">
         <v>22</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>23</v>
       </c>
       <c r="D3" s="1">
         <v>123456</v>
@@ -988,14 +1013,13 @@
         <v>9087654324</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="H3" s="3" t="e">
-        <f>DATEVALUE(2/3/2022)</f>
-        <v>#VALUE!</v>
+        <v>23</v>
+      </c>
+      <c r="H3" s="3">
+        <v>44595</v>
       </c>
       <c r="I3" s="1" t="s">
         <v>17</v>
@@ -1004,22 +1028,24 @@
         <v>30000</v>
       </c>
       <c r="M3" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="N3" s="3">
+        <v>34255</v>
+      </c>
+      <c r="P3" s="1" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:16">
+      <c r="A4" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="N3" s="3" t="e">
-        <f>DATEVALUE(10/13/1993)</f>
-        <v>#VALUE!</v>
-      </c>
-    </row>
-    <row r="4" spans="1:15">
-      <c r="A4" s="1" t="s">
+      <c r="B4" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="B4" s="2" t="s">
+      <c r="C4" s="1" t="s">
         <v>28</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>29</v>
       </c>
       <c r="D4" s="1">
         <v>123456</v>
@@ -1028,14 +1054,13 @@
         <v>9087634324</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G4" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="H4" s="3" t="e">
-        <f>DATEVALUE(2/3/2022)</f>
-        <v>#VALUE!</v>
+        <v>23</v>
+      </c>
+      <c r="H4" s="3">
+        <v>44595</v>
       </c>
       <c r="I4" s="1" t="s">
         <v>17</v>
@@ -1044,22 +1069,24 @@
         <v>12000</v>
       </c>
       <c r="M4" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="N4" s="3">
+        <v>36121</v>
+      </c>
+      <c r="P4" s="1" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:16">
+      <c r="A5" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="N4" s="3" t="e">
-        <f>DATEVALUE(11/22/1998)</f>
-        <v>#VALUE!</v>
-      </c>
-    </row>
-    <row r="5" spans="1:15">
-      <c r="A5" s="1" t="s">
+      <c r="B5" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="B5" s="2" t="s">
+      <c r="C5" s="1" t="s">
         <v>34</v>
-      </c>
-      <c r="C5" s="1" t="s">
-        <v>35</v>
       </c>
       <c r="D5" s="1">
         <v>123456</v>
@@ -1068,14 +1095,13 @@
         <v>9087655324</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G5" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="H5" s="3" t="e">
-        <f>DATEVALUE(2/3/2022)</f>
-        <v>#VALUE!</v>
+        <v>23</v>
+      </c>
+      <c r="H5" s="3">
+        <v>44595</v>
       </c>
       <c r="I5" s="1" t="s">
         <v>17</v>
@@ -1084,22 +1110,24 @@
         <v>12000</v>
       </c>
       <c r="M5" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="N5" s="3">
+        <v>35019</v>
+      </c>
+      <c r="P5" s="1" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:16">
+      <c r="A6" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="N5" s="3" t="e">
-        <f>DATEVALUE(11/16/1995)</f>
-        <v>#VALUE!</v>
-      </c>
-    </row>
-    <row r="6" spans="1:15">
-      <c r="A6" s="1" t="s">
+      <c r="B6" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="B6" s="2" t="s">
+      <c r="C6" s="1" t="s">
         <v>38</v>
-      </c>
-      <c r="C6" s="1" t="s">
-        <v>39</v>
       </c>
       <c r="D6" s="1">
         <v>123456</v>
@@ -1108,14 +1136,13 @@
         <v>9456434855</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="G6" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="H6" s="3" t="e">
-        <f>DATEVALUE(2/3/2022)</f>
-        <v>#VALUE!</v>
+        <v>85</v>
+      </c>
+      <c r="H6" s="3">
+        <v>44595</v>
       </c>
       <c r="I6" s="1" t="s">
         <v>17</v>
@@ -1124,50 +1151,55 @@
         <v>52000</v>
       </c>
       <c r="M6" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="N6" s="3">
+        <v>35757</v>
+      </c>
+      <c r="P6" s="1" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:16">
+      <c r="A7" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="N6" s="3" t="e">
-        <f>DATEVALUE(11/23/1997)</f>
-        <v>#VALUE!</v>
-      </c>
-    </row>
-    <row r="7" spans="1:15">
-      <c r="A7" s="1" t="s">
+      <c r="B7" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="B7" s="2" t="s">
+      <c r="C7" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="C7" s="1" t="s">
+      <c r="D7" s="2" t="s">
         <v>45</v>
-      </c>
-      <c r="D7" s="2" t="s">
-        <v>46</v>
       </c>
       <c r="E7" s="1">
         <v>9756484554</v>
       </c>
       <c r="F7" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="G7" s="1" t="s">
         <v>47</v>
-      </c>
-      <c r="G7" s="1" t="s">
-        <v>48</v>
       </c>
       <c r="H7" s="3"/>
       <c r="I7" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="N7" s="3"/>
+      <c r="P7" s="1" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:16">
+      <c r="A8" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="B8" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="N7" s="3"/>
-    </row>
-    <row r="8" spans="1:15">
-      <c r="A8" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="B8" s="2" t="s">
+      <c r="C8" s="1" t="s">
         <v>50</v>
-      </c>
-      <c r="C8" s="1" t="s">
-        <v>51</v>
       </c>
       <c r="D8" s="1">
         <v>123456</v>
@@ -1176,10 +1208,10 @@
         <v>9895584598</v>
       </c>
       <c r="F8" s="1" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="G8" s="1" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="H8" s="3" t="e">
         <f>DATEVALUE(12/3/2020)</f>
@@ -1195,16 +1227,19 @@
         <f>DATEVALUE(5/15/1990)</f>
         <v>#VALUE!</v>
       </c>
-    </row>
-    <row r="9" spans="1:15">
+      <c r="P8" s="1" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:16">
       <c r="A9" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="C9" s="1" t="s">
         <v>54</v>
-      </c>
-      <c r="B9" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="C9" s="1" t="s">
-        <v>56</v>
       </c>
       <c r="D9" s="1">
         <v>123456</v>
@@ -1213,10 +1248,10 @@
         <v>8418414848</v>
       </c>
       <c r="F9" s="1" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="G9" s="1" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="H9" s="3" t="e">
         <f>DATEVALUE(11/3/2021)</f>
@@ -1229,22 +1264,25 @@
         <v>15000</v>
       </c>
       <c r="M9" s="1" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="N9" s="3" t="e">
         <f>DATEVALUE(5/25/1999)</f>
         <v>#VALUE!</v>
       </c>
-    </row>
-    <row r="10" spans="1:15">
+      <c r="P9" s="1" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:16">
       <c r="A10" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="C10" s="1" t="s">
         <v>59</v>
-      </c>
-      <c r="B10" s="2" t="s">
-        <v>60</v>
-      </c>
-      <c r="C10" s="1" t="s">
-        <v>61</v>
       </c>
       <c r="D10" s="1">
         <v>123456</v>
@@ -1253,10 +1291,10 @@
         <v>9841658418</v>
       </c>
       <c r="F10" s="1" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="G10" s="1" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="H10" s="3" t="e">
         <f>DATEVALUE(12/30/2021)</f>
@@ -1269,22 +1307,25 @@
         <v>15000</v>
       </c>
       <c r="M10" s="1" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="N10" s="3" t="e">
         <f>DATEVALUE(3/28/1999)</f>
         <v>#VALUE!</v>
       </c>
-    </row>
-    <row r="11" spans="1:15">
+      <c r="P10" s="1" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:16">
       <c r="A11" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="C11" s="1" t="s">
         <v>62</v>
-      </c>
-      <c r="B11" s="2" t="s">
-        <v>63</v>
-      </c>
-      <c r="C11" s="1" t="s">
-        <v>64</v>
       </c>
       <c r="D11" s="1">
         <v>123456</v>
@@ -1293,10 +1334,10 @@
         <v>9954123870</v>
       </c>
       <c r="F11" s="1" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="G11" s="1" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="H11" s="3" t="e">
         <f>DATEVALUE(12/12/2020)</f>
@@ -1309,22 +1350,25 @@
         <v>45000</v>
       </c>
       <c r="M11" s="1" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="N11" s="3" t="e">
         <f>DATEVALUE(5/10/1991)</f>
         <v>#VALUE!</v>
       </c>
-    </row>
-    <row r="12" spans="1:15">
+      <c r="P11" s="1" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:16">
       <c r="A12" s="1" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="D12" s="1">
         <v>123456</v>
@@ -1333,10 +1377,10 @@
         <v>7895423590</v>
       </c>
       <c r="F12" s="1" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="G12" s="1" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="H12" s="3" t="e">
         <f t="shared" ref="H12:H13" si="0">DATEVALUE(12/3/2020)</f>
@@ -1349,22 +1393,25 @@
         <v>63000</v>
       </c>
       <c r="M12" s="1" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="N12" s="3" t="e">
         <f>N11=DATEVALUE(11/10/1991)</f>
         <v>#VALUE!</v>
       </c>
-    </row>
-    <row r="13" spans="1:15">
+      <c r="P12" s="1" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:16">
       <c r="A13" s="1" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="D13" s="1">
         <v>123456</v>
@@ -1373,10 +1420,10 @@
         <v>7845896123</v>
       </c>
       <c r="F13" s="1" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="G13" s="1" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="H13" s="3" t="e">
         <f t="shared" si="0"/>
@@ -1389,22 +1436,25 @@
         <v>65000</v>
       </c>
       <c r="M13" s="1" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="N13" s="3" t="e">
         <f>DATEVALUE(5/12/1992)</f>
         <v>#VALUE!</v>
       </c>
-    </row>
-    <row r="14" spans="1:15">
+      <c r="P13" s="1" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:16">
       <c r="A14" s="1" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="D14" s="1">
         <v>123456</v>
@@ -1413,10 +1463,10 @@
         <v>9135426780</v>
       </c>
       <c r="F14" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="G14" s="1" t="s">
         <v>84</v>
-      </c>
-      <c r="G14" s="1" t="s">
-        <v>86</v>
       </c>
       <c r="H14" s="3" t="e">
         <f>DATEVALUE(12/4/2021)</f>
@@ -1429,22 +1479,25 @@
         <v>32000</v>
       </c>
       <c r="M14" s="1" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="N14" s="3" t="e">
         <f>DATEVALUE(5/15/1990)</f>
         <v>#VALUE!</v>
       </c>
-    </row>
-    <row r="15" spans="1:15">
+      <c r="P14" s="1" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:16">
       <c r="A15" s="1" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="D15" s="1">
         <v>123456</v>
@@ -1453,10 +1506,10 @@
         <v>9954123598</v>
       </c>
       <c r="F15" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="G15" s="1" t="s">
         <v>84</v>
-      </c>
-      <c r="G15" s="1" t="s">
-        <v>86</v>
       </c>
       <c r="H15" s="3" t="e">
         <f>DATEVALUE(11/6/2020)</f>
@@ -1469,22 +1522,25 @@
         <v>17000</v>
       </c>
       <c r="M15" s="1" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="N15" s="3" t="e">
         <f>DATEVALUE(5/1/1993)</f>
         <v>#VALUE!</v>
       </c>
-    </row>
-    <row r="16" spans="1:15">
+      <c r="P15" s="1" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:16">
       <c r="A16" s="1" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="D16" s="1">
         <v>123456</v>
@@ -1493,10 +1549,10 @@
         <v>9895584598</v>
       </c>
       <c r="F16" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="G16" s="1" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="H16" s="3" t="e">
         <f>DATEVALUE(13/3/2022)</f>
@@ -1509,22 +1565,25 @@
         <v>33000</v>
       </c>
       <c r="M16" s="1" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="N16" s="3" t="e">
         <f>DATEVALUE(4/6/1990)</f>
         <v>#VALUE!</v>
       </c>
-    </row>
-    <row r="17" spans="1:14">
+      <c r="P16" s="1" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:16">
       <c r="A17" s="1" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="D17" s="1">
         <v>123456</v>
@@ -1533,10 +1592,10 @@
         <v>9642351870</v>
       </c>
       <c r="F17" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="G17" s="1" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="H17" s="3" t="e">
         <f>DATEVALUE(12/4/2020)</f>
@@ -1549,22 +1608,25 @@
         <v>26000</v>
       </c>
       <c r="M17" s="1" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="N17" s="3" t="e">
         <f>DATEVALUE(8/16/1994)</f>
         <v>#VALUE!</v>
       </c>
-    </row>
-    <row r="18" spans="1:14">
+      <c r="P17" s="1" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:16">
       <c r="A18" s="1" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="D18" s="1">
         <v>123456</v>
@@ -1573,10 +1635,10 @@
         <v>7895463210</v>
       </c>
       <c r="F18" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="G18" s="1" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="H18" s="3" t="e">
         <f>DATEVALUE(12/3/2021)</f>
@@ -1589,22 +1651,25 @@
         <v>28000</v>
       </c>
       <c r="M18" s="1" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="N18" s="3" t="e">
         <f>DATEVALUE(2/18/1989)</f>
         <v>#VALUE!</v>
       </c>
-    </row>
-    <row r="19" spans="1:14">
+      <c r="P18" s="1" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:16">
       <c r="A19" s="1" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="D19" s="1">
         <v>123456</v>
@@ -1613,10 +1678,10 @@
         <v>9895235468</v>
       </c>
       <c r="F19" s="1" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="G19" s="1" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="H19" s="3" t="e">
         <f>DATEVALUE(15/7/2021)</f>
@@ -1629,22 +1694,25 @@
         <v>55000</v>
       </c>
       <c r="M19" s="1" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="N19" s="3" t="e">
         <f>DATEVALUE(1/11/1996)</f>
         <v>#VALUE!</v>
       </c>
-    </row>
-    <row r="20" spans="1:14">
+      <c r="P19" s="1" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="1:16">
       <c r="A20" s="1" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="D20" s="1">
         <v>123456</v>
@@ -1653,10 +1721,10 @@
         <v>9874563210</v>
       </c>
       <c r="F20" s="1" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="G20" s="1" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="H20" s="3" t="e">
         <f>DATEVALUE(9/8/2020)</f>
@@ -1669,22 +1737,25 @@
         <v>35000</v>
       </c>
       <c r="M20" s="1" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="N20" s="3" t="e">
         <f>DATEVALUE(10/15/1993)</f>
         <v>#VALUE!</v>
       </c>
-    </row>
-    <row r="21" spans="1:14">
+      <c r="P20" s="1" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:16">
       <c r="A21" s="1" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="D21" s="1">
         <v>123456</v>
@@ -1693,10 +1764,10 @@
         <v>9895314598</v>
       </c>
       <c r="F21" s="1" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="G21" s="1" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="H21" s="3" t="e">
         <f>DATEVALUE(2/5/2021)</f>
@@ -1709,22 +1780,25 @@
         <v>23000</v>
       </c>
       <c r="M21" s="1" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="N21" s="3" t="e">
         <f>DATEVALUE(10/12/1995)</f>
         <v>#VALUE!</v>
       </c>
-    </row>
-    <row r="22" spans="1:14">
+      <c r="P21" s="1" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:16">
       <c r="A22" s="1" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="D22" s="1">
         <v>123456</v>
@@ -1733,10 +1807,10 @@
         <v>9892384598</v>
       </c>
       <c r="F22" s="1" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="G22" s="1" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="H22" s="3" t="e">
         <f>DATEVALUE(3/3/2022)</f>
@@ -1749,22 +1823,25 @@
         <v>14000</v>
       </c>
       <c r="M22" s="1" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="N22" s="3" t="e">
         <f>DATEVALUE(9/20/1992)</f>
         <v>#VALUE!</v>
       </c>
-    </row>
-    <row r="23" spans="1:14">
+      <c r="P22" s="1" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:16">
       <c r="A23" s="1" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="D23" s="1">
         <v>123456</v>
@@ -1773,10 +1850,10 @@
         <v>9895578598</v>
       </c>
       <c r="F23" s="1" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="G23" s="1" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="H23" s="3" t="e">
         <f>DATEVALUE(18/5/2022)</f>
@@ -1789,22 +1866,25 @@
         <v>12000</v>
       </c>
       <c r="M23" s="1" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="N23" s="3" t="e">
         <f>DATEVALUE(5/14/1990)</f>
         <v>#VALUE!</v>
       </c>
-    </row>
-    <row r="24" spans="1:14">
+      <c r="P23" s="1" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:16">
       <c r="A24" s="1" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="D24" s="1">
         <v>123456</v>
@@ -1813,10 +1893,10 @@
         <v>9893284598</v>
       </c>
       <c r="F24" s="1" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="G24" s="1" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="H24" s="3" t="e">
         <f>DATEVALUE(17/3/2021)</f>
@@ -1829,22 +1909,25 @@
         <v>35000</v>
       </c>
       <c r="M24" s="1" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="N24" s="3" t="e">
         <f>DATEVALUE(8/23/1991)</f>
         <v>#VALUE!</v>
       </c>
-    </row>
-    <row r="25" spans="1:14">
+      <c r="P24" s="1" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:16">
       <c r="A25" s="1" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="D25" s="1">
         <v>123456</v>
@@ -1853,10 +1936,10 @@
         <v>9890214598</v>
       </c>
       <c r="F25" s="1" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="G25" s="1" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="H25" s="3" t="e">
         <f>DATEVALUE(3/6/2022)</f>
@@ -1869,22 +1952,25 @@
         <v>14000</v>
       </c>
       <c r="M25" s="1" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="N25" s="3" t="e">
         <f>DATEVALUE(5/15/1992)</f>
         <v>#VALUE!</v>
       </c>
-    </row>
-    <row r="26" spans="1:14">
+      <c r="P25" s="1" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:16">
       <c r="A26" s="1" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="D26" s="1">
         <v>123456</v>
@@ -1893,10 +1979,10 @@
         <v>8797898778</v>
       </c>
       <c r="F26" s="1" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="G26" s="1" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="H26" s="3" t="e">
         <f>DATEVALUE(10/8/2022)</f>
@@ -1909,22 +1995,25 @@
         <v>12000</v>
       </c>
       <c r="M26" s="1" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="N26" s="3" t="e">
         <f t="shared" ref="N26:N29" si="1">DATEVALUE(5/15/1992)</f>
         <v>#VALUE!</v>
       </c>
-    </row>
-    <row r="27" spans="1:14">
+      <c r="P26" s="1" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:16">
       <c r="A27" s="1" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="D27" s="1">
         <v>123456</v>
@@ -1933,10 +2022,10 @@
         <v>9878578788</v>
       </c>
       <c r="F27" s="1" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="G27" s="1" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="H27" s="3" t="e">
         <f t="shared" ref="H27:H34" si="2">DATEVALUE(10/8/2022)</f>
@@ -1949,22 +2038,25 @@
         <v>20000</v>
       </c>
       <c r="M27" s="1" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="N27" s="3" t="e">
         <f t="shared" si="1"/>
         <v>#VALUE!</v>
       </c>
-    </row>
-    <row r="28" spans="1:14">
+      <c r="P27" s="1" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:16">
       <c r="A28" s="1" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="C28" s="1" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="D28" s="1">
         <v>123456</v>
@@ -1973,10 +2065,10 @@
         <v>8765478685</v>
       </c>
       <c r="F28" s="1" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="G28" s="1" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="H28" s="3" t="e">
         <f t="shared" si="2"/>
@@ -1989,22 +2081,25 @@
         <v>20000</v>
       </c>
       <c r="M28" s="1" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="N28" s="3" t="e">
         <f t="shared" si="1"/>
         <v>#VALUE!</v>
       </c>
-    </row>
-    <row r="29" spans="1:14">
+      <c r="P28" s="1" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:16">
       <c r="A29" s="1" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="C29" s="1" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="D29" s="1">
         <v>123456</v>
@@ -2013,10 +2108,10 @@
         <v>8984587588</v>
       </c>
       <c r="F29" s="1" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="G29" s="1" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="H29" s="3" t="e">
         <f t="shared" si="2"/>
@@ -2029,22 +2124,25 @@
         <v>20000</v>
       </c>
       <c r="M29" s="1" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="N29" s="3" t="e">
         <f t="shared" si="1"/>
         <v>#VALUE!</v>
       </c>
-    </row>
-    <row r="30" spans="1:14">
+      <c r="P29" s="1" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:16">
       <c r="A30" s="1" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="B30" s="2" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="C30" s="1" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="D30" s="1">
         <v>123456</v>
@@ -2053,10 +2151,10 @@
         <v>9788544654</v>
       </c>
       <c r="F30" s="1" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="G30" s="1" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="H30" s="3" t="e">
         <f t="shared" si="2"/>
@@ -2069,50 +2167,56 @@
         <v>55000</v>
       </c>
       <c r="M30" s="1" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="N30" s="3" t="e">
         <f>DATEVALUE(9/25/1992)</f>
         <v>#VALUE!</v>
       </c>
-    </row>
-    <row r="31" spans="1:14">
+      <c r="P30" s="1" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="1:16">
       <c r="A31" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="B31" s="2" t="s">
+        <v>148</v>
+      </c>
+      <c r="C31" s="1" t="s">
         <v>149</v>
       </c>
-      <c r="B31" s="2" t="s">
-        <v>150</v>
-      </c>
-      <c r="C31" s="1" t="s">
-        <v>151</v>
-      </c>
       <c r="D31" s="2" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="E31" s="1">
         <v>9756484554</v>
       </c>
       <c r="F31" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="G31" s="1" t="s">
         <v>47</v>
-      </c>
-      <c r="G31" s="1" t="s">
-        <v>48</v>
       </c>
       <c r="H31" s="3"/>
       <c r="I31" s="1" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="N31" s="3"/>
-    </row>
-    <row r="32" spans="1:14">
+      <c r="P31" s="1" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="1:16">
       <c r="A32" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="B32" s="2" t="s">
         <v>152</v>
       </c>
-      <c r="B32" s="2" t="s">
-        <v>154</v>
-      </c>
       <c r="C32" s="1" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="D32" s="1">
         <v>123456</v>
@@ -2121,10 +2225,10 @@
         <v>9417984544</v>
       </c>
       <c r="F32" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="G32" s="1" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="H32" s="3" t="e">
         <f>DATEVALUE(6/29/2022)</f>
@@ -2137,22 +2241,25 @@
         <v>12000</v>
       </c>
       <c r="M32" s="1" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="N32" s="3" t="e">
         <f>DATEVALUE(10/1/1997)</f>
         <v>#VALUE!</v>
       </c>
-    </row>
-    <row r="33" spans="1:14">
+      <c r="P32" s="1" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="1:16">
       <c r="A33" s="1" t="s">
+        <v>155</v>
+      </c>
+      <c r="B33" s="2" t="s">
+        <v>160</v>
+      </c>
+      <c r="C33" s="1" t="s">
         <v>157</v>
-      </c>
-      <c r="B33" s="2" t="s">
-        <v>162</v>
-      </c>
-      <c r="C33" s="1" t="s">
-        <v>159</v>
       </c>
       <c r="D33" s="1">
         <v>123456</v>
@@ -2161,10 +2268,10 @@
         <v>9878583888</v>
       </c>
       <c r="F33" s="1" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="G33" s="1" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="H33" s="3" t="e">
         <f t="shared" si="2"/>
@@ -2177,22 +2284,25 @@
         <v>20000</v>
       </c>
       <c r="M33" s="1" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="N33" s="3" t="e">
         <f>DATEVALUE(5/15/1998)</f>
         <v>#VALUE!</v>
       </c>
-    </row>
-    <row r="34" spans="1:14">
+      <c r="P33" s="1" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="1:16">
       <c r="A34" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="B34" s="2" t="s">
+        <v>159</v>
+      </c>
+      <c r="C34" s="1" t="s">
         <v>158</v>
-      </c>
-      <c r="B34" s="2" t="s">
-        <v>161</v>
-      </c>
-      <c r="C34" s="1" t="s">
-        <v>160</v>
       </c>
       <c r="D34" s="1">
         <v>123456</v>
@@ -2201,10 +2311,10 @@
         <v>8786782456</v>
       </c>
       <c r="F34" s="1" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="G34" s="1" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="H34" s="3" t="e">
         <f t="shared" si="2"/>
@@ -2217,59 +2327,98 @@
         <v>25000</v>
       </c>
       <c r="M34" s="1" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="N34" s="3" t="e">
         <f>DATEVALUE(5/5/1995)</f>
         <v>#VALUE!</v>
       </c>
-    </row>
-    <row r="35" spans="1:14">
-      <c r="B35" s="2"/>
-      <c r="H35" s="3"/>
-      <c r="N35" s="3"/>
-    </row>
-    <row r="36" spans="1:14">
+      <c r="P34" s="1" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="1:16" ht="15.75">
+      <c r="A35" s="1" t="s">
+        <v>161</v>
+      </c>
+      <c r="B35" s="4" t="s">
+        <v>162</v>
+      </c>
+      <c r="C35" s="1" t="s">
+        <v>163</v>
+      </c>
+      <c r="D35" s="1">
+        <v>123456</v>
+      </c>
+      <c r="E35" s="1">
+        <v>9890454598</v>
+      </c>
+      <c r="F35" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="G35" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="H35" s="1" t="e">
+        <v>#VALUE!</v>
+      </c>
+      <c r="I35" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="J35" s="1">
+        <v>14000</v>
+      </c>
+      <c r="M35" s="1" t="s">
+        <v>164</v>
+      </c>
+      <c r="N35" s="1" t="e">
+        <v>#VALUE!</v>
+      </c>
+      <c r="P35" s="1" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:16">
       <c r="B36" s="2"/>
       <c r="H36" s="3"/>
     </row>
-    <row r="37" spans="1:14">
+    <row r="37" spans="1:16">
       <c r="B37" s="2"/>
       <c r="H37" s="3"/>
     </row>
-    <row r="38" spans="1:14">
+    <row r="38" spans="1:16">
       <c r="B38" s="2"/>
       <c r="H38" s="3"/>
     </row>
-    <row r="39" spans="1:14">
+    <row r="39" spans="1:16">
       <c r="B39" s="2"/>
       <c r="H39" s="3"/>
     </row>
-    <row r="40" spans="1:14">
+    <row r="40" spans="1:16">
       <c r="B40" s="2"/>
       <c r="H40" s="3"/>
     </row>
-    <row r="41" spans="1:14">
+    <row r="41" spans="1:16">
       <c r="B41" s="2"/>
       <c r="H41" s="3"/>
     </row>
-    <row r="42" spans="1:14">
+    <row r="42" spans="1:16">
       <c r="B42" s="2"/>
       <c r="H42" s="3"/>
     </row>
-    <row r="43" spans="1:14">
+    <row r="43" spans="1:16">
       <c r="B43" s="2"/>
       <c r="H43" s="3"/>
     </row>
-    <row r="44" spans="1:14">
+    <row r="44" spans="1:16">
       <c r="B44" s="2"/>
       <c r="H44" s="3"/>
     </row>
-    <row r="45" spans="1:14">
+    <row r="45" spans="1:16">
       <c r="B45" s="2"/>
       <c r="H45" s="3"/>
     </row>
-    <row r="46" spans="1:14">
+    <row r="46" spans="1:16">
       <c r="B46" s="2"/>
       <c r="H46" s="3"/>
     </row>
@@ -2311,9 +2460,10 @@
     <hyperlink ref="B32" r:id="rId34"/>
     <hyperlink ref="B33" r:id="rId35"/>
     <hyperlink ref="B34" r:id="rId36"/>
+    <hyperlink ref="B35" r:id="rId37"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId37"/>
+  <pageSetup orientation="portrait" r:id="rId38"/>
 </worksheet>
 </file>
 
